--- a/Resources/Pizza Ingredients.xlsx
+++ b/Resources/Pizza Ingredients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\repos\Generative-AI-Course\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F3DD19-B574-4AC7-BE8C-62E9854E639B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B83D3A2-7F8C-48D0-BF83-CC12A7CA2D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2528B7C7-CB97-4319-A4A8-7847BFEAFB64}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2528B7C7-CB97-4319-A4A8-7847BFEAFB64}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab" sheetId="3" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
-  <si>
-    <t xml:space="preserve">Instructions </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Item</t>
   </si>
@@ -101,28 +98,7 @@
     <t>CostIncVAT</t>
   </si>
   <si>
-    <t>Excel Formulas: Pizza Exercise</t>
-  </si>
-  <si>
-    <t>1. For each item, calculate the cost excluding VAT of the items below.</t>
-  </si>
-  <si>
-    <t>2. For each item, calculate the VAT - note that some items are VATable and some are not. Use a VAT rate of 20%.</t>
-  </si>
-  <si>
-    <t>3. For each item, calculate the cost including VAT</t>
-  </si>
-  <si>
-    <t>4. Calculate the totals of these for all items</t>
-  </si>
-  <si>
-    <t>5. Consider that VAT could change from time to time.  Will this change your design?</t>
-  </si>
-  <si>
-    <t>If the data is formatted as an Excel table, this has several advantages</t>
-  </si>
-  <si>
-    <t>6. (Optional) Add one or two more ingredients of your choice to the list below.</t>
+    <t>Pizza Ingredients</t>
   </si>
 </sst>
 </file>
@@ -132,7 +108,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -163,34 +139,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="4" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="14"/>
-      <color theme="4" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -216,35 +171,175 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF002060"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF002060"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF002060"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -261,6 +356,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B80DA1F-DD42-41D1-ACAF-5BC57376C247}" name="Items" displayName="Items" ref="B7:I11" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="B7:I11" xr:uid="{7B80DA1F-DD42-41D1-ACAF-5BC57376C247}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{40AE4F0F-6E02-4837-B262-67CB3CD224FD}" name="Item" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{A282FFCC-C28D-4118-AB8C-D3F9A9A45262}" name="Size" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{65EB9950-92EC-475B-B63E-42326CF9721B}" name="VATable" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{6504A8BC-A649-4295-87DA-56869628D3B4}" name="UnitCost" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{71E57354-7C20-493A-85C8-274BA3C5F8BB}" name="Quantity" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{208E3C1D-B289-4F61-81F6-49D0545EC526}" name="CostExVAT" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{FE324E81-D0BB-41D9-B7CD-F46C45FA0D87}" name="VAT" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{54E52380-B7C5-4B93-8FF5-6D9CF7B9EEDE}" name="CostIncVAT" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -563,351 +675,167 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.296875" customWidth="1"/>
-    <col min="2" max="3" width="14.19921875" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.69921875" customWidth="1"/>
-    <col min="6" max="6" width="9.59765625" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="12.69921875" customWidth="1"/>
+    <col min="1" max="1" width="4.296875" style="2" customWidth="1"/>
+    <col min="2" max="3" width="14.19921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.59765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.69921875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>25</v>
+      <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
+      <c r="B8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2</v>
+      </c>
+      <c r="F8" s="9">
+        <v>5</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
+      <c r="B9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>3</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="B11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F11" s="9">
         <v>4</v>
       </c>
-      <c r="C11" s="5">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2</v>
-      </c>
-      <c r="F16" s="4">
-        <v>5</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="F17" s="4">
-        <v>2</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4">
-        <v>3</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="F19" s="4">
-        <v>4</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="14">
-        <v>2</v>
-      </c>
-      <c r="F28" s="16">
-        <v>5</v>
-      </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="F29" s="16">
-        <v>2</v>
-      </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="14">
-        <v>1</v>
-      </c>
-      <c r="F30" s="16">
-        <v>3</v>
-      </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="F31" s="16">
-        <v>4</v>
-      </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Resources/Pizza Ingredients.xlsx
+++ b/Resources/Pizza Ingredients.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\repos\Generative-AI-Course\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B83D3A2-7F8C-48D0-BF83-CC12A7CA2D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88793090-AD79-4514-B15E-3574DB1A342D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2528B7C7-CB97-4319-A4A8-7847BFEAFB64}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab" sheetId="3" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="vat_rate">Lab!$C$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -171,17 +174,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -189,38 +191,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
       <fill>
@@ -328,6 +298,38 @@
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color rgb="FF002060"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -359,17 +361,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B80DA1F-DD42-41D1-ACAF-5BC57376C247}" name="Items" displayName="Items" ref="B7:I11" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="B7:I11" xr:uid="{7B80DA1F-DD42-41D1-ACAF-5BC57376C247}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B80DA1F-DD42-41D1-ACAF-5BC57376C247}" name="Items" displayName="Items" ref="B6:I10" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B6:I10" xr:uid="{7B80DA1F-DD42-41D1-ACAF-5BC57376C247}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{40AE4F0F-6E02-4837-B262-67CB3CD224FD}" name="Item" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{A282FFCC-C28D-4118-AB8C-D3F9A9A45262}" name="Size" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{65EB9950-92EC-475B-B63E-42326CF9721B}" name="VATable" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{6504A8BC-A649-4295-87DA-56869628D3B4}" name="UnitCost" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{71E57354-7C20-493A-85C8-274BA3C5F8BB}" name="Quantity" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{208E3C1D-B289-4F61-81F6-49D0545EC526}" name="CostExVAT" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{FE324E81-D0BB-41D9-B7CD-F46C45FA0D87}" name="VAT" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{54E52380-B7C5-4B93-8FF5-6D9CF7B9EEDE}" name="CostIncVAT" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{40AE4F0F-6E02-4837-B262-67CB3CD224FD}" name="Item" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{A282FFCC-C28D-4118-AB8C-D3F9A9A45262}" name="Size" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{65EB9950-92EC-475B-B63E-42326CF9721B}" name="VATable" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{6504A8BC-A649-4295-87DA-56869628D3B4}" name="UnitCost" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{71E57354-7C20-493A-85C8-274BA3C5F8BB}" name="Quantity" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{208E3C1D-B289-4F61-81F6-49D0545EC526}" name="CostExVAT" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{FE324E81-D0BB-41D9-B7CD-F46C45FA0D87}" name="VAT" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{54E52380-B7C5-4B93-8FF5-6D9CF7B9EEDE}" name="CostIncVAT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -675,23 +677,22 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.296875" style="2" customWidth="1"/>
-    <col min="2" max="3" width="14.19921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.69921875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.59765625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.69921875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="4.296875" customWidth="1"/>
+    <col min="2" max="3" width="14.19921875" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" customWidth="1"/>
+    <col min="6" max="6" width="9.59765625" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -699,137 +700,137 @@
         <v>20</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2</v>
+      </c>
+      <c r="F7" s="8">
+        <v>5</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
         <v>3</v>
       </c>
-      <c r="C3" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F10" s="8">
         <v>4</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6">
-        <v>2</v>
-      </c>
-      <c r="F8" s="9">
-        <v>5</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="F9" s="9">
-        <v>2</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9">
-        <v>3</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="F11" s="9">
-        <v>4</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
